--- a/Ementa.xlsx
+++ b/Ementa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev_user\Desktop\YT\Polimata\Vídeos\V0004 - CursoOnline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albuq\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE89327A-E747-462D-9F7A-CE9E40CE0623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919E4419-E11A-483E-8435-CCC6F3BA9A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4A37C3EA-52E4-43F8-8BB5-7FF034FAA8C0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4A37C3EA-52E4-43F8-8BB5-7FF034FAA8C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Quadros (2)" sheetId="2" r:id="rId1"/>
@@ -37,8 +37,82 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Daniel Albuquerque</author>
+  </authors>
+  <commentList>
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{9CC4EFAF-A5BA-4B84-82B8-44912D2D1CB3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Podemos indicar os arquivos da SUSEP, como o manual do FIP e do COPRA. Além disso, podemos passar um pouco de computação.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{8E4F2538-1EE2-436E-936D-89B8A5D654A5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mostrar algumas atividades que seguradoras fazem</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{8FDD000B-D5D7-4312-9E8E-2780C257F835}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Que tal dar um pouco de conceito de lógica de programa antes? Algo bem básico.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{61C08EF6-9AFD-4FA9-AE76-45122AD343AA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Daniel Albuquerque:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Algo que percebi em seguradoras, é que muitos não entendem os principais conceitos de premio e sinistro, e como chegar neles. Falar antes do QE acho que seria uma boa ideia.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="144">
   <si>
     <t>CONTROLE DE TAREFAS</t>
   </si>
@@ -392,13 +466,91 @@
   </si>
   <si>
     <t>Análise Cruzada</t>
+  </si>
+  <si>
+    <t>Para computação, podemos passar exercícios básicos, como prints e soma. Já para a parte Seguros, podemos criar um questionário com questões de alternativas para os alunos responderem</t>
+  </si>
+  <si>
+    <t>Atividades de lógica de programação. Já tenho algumas apostilas e lições para isso</t>
+  </si>
+  <si>
+    <t>Questões de multiplas escolhas.</t>
+  </si>
+  <si>
+    <t>Cruzar os QE para validações e analises</t>
+  </si>
+  <si>
+    <t>1.5.06</t>
+  </si>
+  <si>
+    <t>Como ajustar problemas nos Qes</t>
+  </si>
+  <si>
+    <t>1.5.07</t>
+  </si>
+  <si>
+    <t>1.5.08</t>
+  </si>
+  <si>
+    <t>QEs</t>
+  </si>
+  <si>
+    <t>Exercício prático</t>
+  </si>
+  <si>
+    <t>Conceito de fluxo de sinistro e prêmios para criação dos QE</t>
+  </si>
+  <si>
+    <t>Análise dos númros dos QE (igual ao que a SUSEP disponibiliza)</t>
+  </si>
+  <si>
+    <t>1.5.09</t>
+  </si>
+  <si>
+    <t>FIP SUSEP</t>
+  </si>
+  <si>
+    <t>Ferramenta da SUSEP</t>
+  </si>
+  <si>
+    <t>Como usar e analisar os dados no FIP SUSEP (O famoso FIP amarelo que enviamos os QEs)</t>
+  </si>
+  <si>
+    <t>Regularizar o mercado de Seguros privados do Brasil. Além de estabelecer metodologias que facilitam os cálculos de solvência</t>
+  </si>
+  <si>
+    <t>A Susep utiliza as informações para saber da saúde de cada seguradora, além de auditar os valores e verificar possíveis fraudes.</t>
+  </si>
+  <si>
+    <t>Sempre na terceira semana do mês é necessário enviar os Qes e o FIP, exceto em janeiro e julho, que são meses do fechamento semestral, cuja entrega  é postegada para o mês seguinte</t>
+  </si>
+  <si>
+    <t>Análise de fluxos de prêmio e sinistro, cálculo de provisões, batimento com bases operacionais e com o balancete contábil, etc.</t>
+  </si>
+  <si>
+    <t>Valores de prêmios e de sinistro, datas de emissão, vigência, fim de vigência, data de ocorrência de sinistro, aviso de sinsitro.</t>
+  </si>
+  <si>
+    <t>Explicar cada campo do quadro (o que é para que serve). O que são os TPMOIDs e CMPIDs, como analisar cada um, como ver, através deles a saúde da empresa. Analise de sinistralidade, cruzamento com o QE 377, porque ele é chamado de quadro de movimentação.</t>
+  </si>
+  <si>
+    <t>Explicar cada campo do quadro (o que é para que serve). O que são os TPMOIDs e CMPIDs, como analisar cada um, como ver, através deles a saúde da empresa. Analise de sinistralidade, cruzamento com o QE 376, porque ele é chamado de quadro de pendentes.</t>
+  </si>
+  <si>
+    <t>1.1.08</t>
+  </si>
+  <si>
+    <t>Conceitos báscios</t>
+  </si>
+  <si>
+    <t>O que é prêmio, sinistro incorrido, ocorrido, registrato, etc....</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,8 +592,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,6 +616,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -513,6 +690,64 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -846,788 +1081,912 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA88774-4B58-4EC6-99AD-23DBB28EC472}">
-  <dimension ref="B2:K37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA88774-4B58-4EC6-99AD-23DBB28EC472}">
+  <dimension ref="B2:K42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="83.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="3.42578125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="3.7109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="2" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="2" style="14" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="10" style="14" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="83.44140625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="3.44140625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="2" style="14" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="37.5" x14ac:dyDescent="0.7">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="17"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="7"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="17"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="7"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="9" t="s">
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+    </row>
+    <row r="9" spans="2:11" ht="117.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="15"/>
+      <c r="C9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
+      <c r="H9" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="7"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="9" t="s">
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="2:11" ht="67.2" x14ac:dyDescent="0.3">
+      <c r="B12" s="15"/>
+      <c r="C12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7"/>
+      <c r="H12" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="15"/>
+      <c r="C15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="D15" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F15" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G15" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="9" t="s">
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="15"/>
+      <c r="C16" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="D16" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F16" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G16" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="9" t="s">
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="15"/>
+      <c r="C17" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="D17" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F17" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G17" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-      <c r="C17" s="9" t="s">
+      <c r="H17" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="17"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="15"/>
+      <c r="C18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="D18" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G18" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H18" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="9" t="s">
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="17"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="15"/>
+      <c r="C19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="D19" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G19" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="9" t="s">
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="15"/>
+      <c r="C20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="9" t="s">
+      <c r="D20" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G20" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H20" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="9" t="s">
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="15"/>
+      <c r="C21" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="D21" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G21" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H21" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="5"/>
-      <c r="C21" s="9" t="s">
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="17"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="15"/>
+      <c r="C22" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="9" t="s">
+      <c r="D22" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F22" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G22" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H22" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="9" t="s">
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="17"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="15"/>
+      <c r="C23" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="D23" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F23" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G23" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="5"/>
-      <c r="C23" s="9" t="s">
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="15"/>
+      <c r="C24" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="9" t="s">
+      <c r="D24" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F24" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G24" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="5"/>
-      <c r="C24" s="9" t="s">
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="15"/>
+      <c r="C25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="9" t="s">
+      <c r="D25" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F25" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G25" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H25" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="5"/>
-      <c r="C25" s="9" t="s">
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="17"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="15"/>
+      <c r="C26" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="9" t="s">
+      <c r="D26" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F26" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G26" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H26" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="7"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="5"/>
-      <c r="C26" s="9" t="s">
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="17"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="15"/>
+      <c r="C27" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="9" t="s">
+      <c r="D27" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F27" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G27" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H27" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="5"/>
-      <c r="C27" s="9" t="s">
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="17"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="15"/>
+      <c r="C28" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="9" t="s">
+      <c r="D28" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F28" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G28" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="5"/>
-      <c r="C28" s="9" t="s">
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="17"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="15"/>
+      <c r="C29" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="9" t="s">
+      <c r="D29" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F29" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G29" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="7"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="5"/>
-      <c r="C29" s="9" t="s">
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="17"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="15"/>
+      <c r="C30" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="9" t="s">
+      <c r="D30" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F30" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G30" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H30" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="7"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="5"/>
-      <c r="C30" s="9" t="s">
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="17"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="15"/>
+      <c r="C31" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="9" t="s">
+      <c r="D31" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F31" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G31" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H31" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="7"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="5"/>
-      <c r="C31" s="9" t="s">
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="17"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="15"/>
+      <c r="C32" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="9" t="s">
+      <c r="D32" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F32" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G32" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H32" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="7"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C32" s="9" t="s">
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="17"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="16"/>
+      <c r="C33" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="16"/>
+      <c r="C34" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="16"/>
+      <c r="C35" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="16"/>
+      <c r="C36" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C37" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="9" t="s">
+      <c r="D37" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F37" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G37" s="18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C33" s="9" t="s">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C38" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="9" t="s">
+      <c r="D38" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F38" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C34" s="9" t="s">
+      <c r="G38" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C39" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="9" t="s">
+      <c r="D39" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F39" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G39" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C35" s="9" t="s">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C40" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="9" t="s">
+      <c r="D40" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F40" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G40" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H40" s="14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C36" s="9" t="s">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C41" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="9" t="s">
+      <c r="D41" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F41" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G41" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H41" s="16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C37" s="9" t="s">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C42" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="9" t="s">
+      <c r="D42" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F42" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G42" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H42" s="14" t="s">
         <v>88</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1635,26 +1994,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9FCF8F-0AFA-46BC-808F-B41AC1A5F7D7}">
   <dimension ref="B2:I33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D17"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="10" style="4" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="130" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" style="4" customWidth="1"/>
     <col min="10" max="10" width="2" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="11" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="37.5" x14ac:dyDescent="0.7">
+    <row r="2" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.75">
       <c r="B2" s="1" t="s">
         <v>90</v>
       </c>
@@ -1666,7 +2025,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -1676,7 +2035,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
         <v>92</v>
@@ -1690,7 +2049,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1700,7 +2059,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="5"/>
       <c r="C6" s="8" t="s">
         <v>91</v>
@@ -1716,7 +2075,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="5"/>
       <c r="C7" s="9" t="s">
         <v>30</v>
@@ -1732,7 +2091,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="5"/>
       <c r="C8" s="9" t="s">
         <v>30</v>
@@ -1748,7 +2107,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="5"/>
       <c r="C9" s="9" t="s">
         <v>30</v>
@@ -1756,13 +2115,15 @@
       <c r="D9" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="26" t="s">
+        <v>134</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="5"/>
       <c r="C10" s="9" t="s">
         <v>30</v>
@@ -1770,27 +2131,31 @@
       <c r="D10" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="26" t="s">
+        <v>135</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
-      <c r="C11" s="9" t="s">
+    <row r="11" spans="2:9" s="25" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="21"/>
+      <c r="C11" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E11" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
       <c r="C12" s="9" t="s">
         <v>30</v>
@@ -1798,13 +2163,15 @@
       <c r="D12" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="26" t="s">
+        <v>137</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="5"/>
       <c r="C13" s="9" t="s">
         <v>30</v>
@@ -1812,13 +2179,15 @@
       <c r="D13" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="26" t="s">
+        <v>138</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" ht="33.6" x14ac:dyDescent="0.4">
       <c r="B14" s="5"/>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -1826,13 +2195,15 @@
       <c r="D14" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="28" t="s">
+        <v>139</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="33.6" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
       <c r="C15" s="9" t="s">
         <v>30</v>
@@ -1840,13 +2211,15 @@
       <c r="D15" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="28" t="s">
+        <v>140</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="5"/>
       <c r="C16" s="9" t="s">
         <v>30</v>
@@ -1860,7 +2233,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" s="5"/>
       <c r="C17" s="9" t="s">
         <v>30</v>
@@ -1874,7 +2247,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" s="5"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1884,7 +2257,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="5"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -1894,7 +2267,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="5"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1904,7 +2277,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="5"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1914,7 +2287,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1924,7 +2297,7 @@
       <c r="H22" s="6"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" s="5"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1934,7 +2307,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" s="5"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1944,7 +2317,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1954,7 +2327,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B26" s="5"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1964,7 +2337,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B27" s="5"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1974,7 +2347,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B28" s="5"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -1984,28 +2357,28 @@
       <c r="H28" s="6"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -2024,23 +2397,23 @@
       <selection activeCell="D12" sqref="D10:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="10" style="4" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="83.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="83.44140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" style="4" customWidth="1"/>
     <col min="11" max="11" width="2" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="4"/>
+    <col min="12" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="37.5" x14ac:dyDescent="0.7">
+    <row r="2" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.75">
       <c r="B2" s="1" t="s">
         <v>105</v>
       </c>
@@ -2053,7 +2426,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2064,7 +2437,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
         <v>92</v>
@@ -2079,7 +2452,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2090,7 +2463,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="5"/>
       <c r="C6" s="8" t="s">
         <v>91</v>
@@ -2109,7 +2482,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="5"/>
       <c r="C7" s="9" t="s">
         <v>30</v>
@@ -2126,7 +2499,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="5"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
@@ -2141,7 +2514,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="5"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
@@ -2156,7 +2529,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="5"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -2167,7 +2540,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -2178,7 +2551,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -2189,7 +2562,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="5"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -2200,7 +2573,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="5"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -2211,7 +2584,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -2222,7 +2595,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="5"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -2233,7 +2606,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="5"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -2244,7 +2617,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="5"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -2255,7 +2628,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="5"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -2266,7 +2639,7 @@
       <c r="I19" s="6"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="5"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -2277,7 +2650,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="5"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -2288,7 +2661,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -2299,7 +2672,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="5"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -2310,7 +2683,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="5"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -2321,7 +2694,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2332,7 +2705,7 @@
       <c r="I25" s="6"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="5"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -2343,7 +2716,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="5"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -2354,7 +2727,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="5"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -2365,32 +2738,32 @@
       <c r="I28" s="6"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
